--- a/biology/Histoire de la zoologie et de la botanique/Harald_Lindberg/Harald_Lindberg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Harald_Lindberg/Harald_Lindberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harald Lindberg est un botaniste suédo-finlandais, né en 1871 à Helsingfors dans le grand-duché de Finlande (aujourd'hui Helsinki) et mort en 1963 à Helsinki.
 C'est une des personnalités marquantes de l'université d'Helsinki, au sein de laquelle il a effectué une carrière de quarante-quatre ans (1897-1941).
@@ -512,7 +524,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Harald Lindberg est le fils du botaniste suédois Sextus Otto Lindberg (1835-1889).
 Il se fait principalement connaître par ses travaux en paléobotanique.
@@ -547,7 +561,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Genre
 (Poaceae) Lindbergella (H.Lindb.) Bor</t>
@@ -578,7 +594,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lindberg, H. 1897-1900. Om Pohlia pulchella (Hedw.), P. Carnea (L) och nagra med dem sammanblandade former. éd. Helsingfors : Societas pro fauna et flora Fennica
 ----. 1899. Om Pohlia pulchella (Hedw.) P. carnea (L.) och nagra med dem sammanblandade former ; med 1 tafla. éd. Helsingfors
@@ -638,7 +656,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Benoît Dayrat (2003). Les Botanistes et la Flore de France, trois siècles de découvertes. Publications scientifiques du Muséum national d'histoire naturelle : 690 p.
 (fi) Biographie du muséum d'Helsinki</t>
